--- a/trunk/Arquitectura de Negocios/RAM/RAM v3.0.xlsx
+++ b/trunk/Arquitectura de Negocios/RAM/RAM v3.0.xlsx
@@ -30,9 +30,6 @@
     <t>GESTIÓN DE PROYECTOS</t>
   </si>
   <si>
-    <t>Actualización de currículas de Educación Técnica</t>
-  </si>
-  <si>
     <t>GESTIÓN DE ASEGURAMIENTO DE LA CALIDAD EDUCATIVA</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>Realizar Inventario de Talleres de Educación Técnica</t>
+  </si>
+  <si>
+    <t>Actualizar currículas de Educación Técnica</t>
   </si>
 </sst>
 </file>
@@ -916,6 +916,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -981,27 +1002,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1307,8 +1307,8 @@
   <dimension ref="B3:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="4" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,106 +1320,106 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
+      <c r="E3" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
     </row>
     <row r="4" spans="2:19" ht="162" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="5" t="s">
+      <c r="R4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="5" t="s">
+    </row>
+    <row r="5" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>39</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -1428,10 +1428,10 @@
       <c r="S5" s="19"/>
     </row>
     <row r="6" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="7"/>
@@ -1440,11 +1440,11 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -1454,13 +1454,13 @@
       <c r="S6" s="20"/>
     </row>
     <row r="7" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="33"/>
-      <c r="C7" s="42"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1470,7 +1470,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -1480,30 +1480,30 @@
       <c r="S7" s="20"/>
     </row>
     <row r="8" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="33"/>
-      <c r="C8" s="42"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -1512,10 +1512,10 @@
       <c r="S8" s="20"/>
     </row>
     <row r="9" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="33"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="7"/>
@@ -1525,10 +1525,10 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1538,25 +1538,25 @@
       <c r="S9" s="20"/>
     </row>
     <row r="10" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="33"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -1566,24 +1566,24 @@
       <c r="S10" s="21"/>
     </row>
     <row r="11" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="33"/>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="51" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -1594,10 +1594,10 @@
       <c r="S11" s="22"/>
     </row>
     <row r="12" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="33"/>
-      <c r="C12" s="42"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="7"/>
@@ -1607,12 +1607,12 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -1620,10 +1620,10 @@
       <c r="S12" s="20"/>
     </row>
     <row r="13" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="33"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="7"/>
@@ -1633,7 +1633,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -1644,10 +1644,10 @@
       <c r="S13" s="20"/>
     </row>
     <row r="14" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="33"/>
-      <c r="C14" s="42"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="7"/>
@@ -1657,12 +1657,12 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -1670,10 +1670,10 @@
       <c r="S14" s="20"/>
     </row>
     <row r="15" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="33"/>
-      <c r="C15" s="42"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="7"/>
@@ -1681,15 +1681,15 @@
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -1698,10 +1698,10 @@
       <c r="S15" s="20"/>
     </row>
     <row r="16" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="33"/>
-      <c r="C16" s="42"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="7"/>
@@ -1709,7 +1709,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -1722,10 +1722,10 @@
       <c r="S16" s="20"/>
     </row>
     <row r="17" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="33"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="7"/>
@@ -1733,7 +1733,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -1746,10 +1746,10 @@
       <c r="S17" s="20"/>
     </row>
     <row r="18" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="33"/>
-      <c r="C18" s="43"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="9"/>
@@ -1757,7 +1757,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -1770,15 +1770,15 @@
       <c r="S18" s="21"/>
     </row>
     <row r="19" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
-      <c r="C19" s="44" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="51" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -1789,7 +1789,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
@@ -1798,26 +1798,26 @@
       <c r="S19" s="22"/>
     </row>
     <row r="20" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="33"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -1826,8 +1826,8 @@
       <c r="S20" s="20"/>
     </row>
     <row r="21" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
@@ -1841,7 +1841,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -1850,10 +1850,10 @@
       <c r="S21" s="20"/>
     </row>
     <row r="22" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="34"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="9"/>
@@ -1865,7 +1865,7 @@
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
@@ -1874,14 +1874,14 @@
       <c r="S22" s="21"/>
     </row>
     <row r="23" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>56</v>
+      <c r="B23" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>55</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="8"/>
@@ -1890,7 +1890,7 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
@@ -1902,21 +1902,21 @@
       <c r="S23" s="22"/>
     </row>
     <row r="24" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="36"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="50" t="s">
-        <v>57</v>
+      <c r="B24" s="43"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="28" t="s">
+        <v>56</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -1928,13 +1928,13 @@
       <c r="S24" s="20"/>
     </row>
     <row r="25" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="36"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="50" t="s">
-        <v>58</v>
+      <c r="B25" s="43"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1942,7 +1942,7 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
@@ -1954,19 +1954,19 @@
       <c r="S25" s="20"/>
     </row>
     <row r="26" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="36"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="50" t="s">
-        <v>59</v>
+      <c r="B26" s="43"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -1980,13 +1980,13 @@
       <c r="S26" s="20"/>
     </row>
     <row r="27" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="36"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="51" t="s">
-        <v>4</v>
+      <c r="B27" s="43"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="29" t="s">
+        <v>95</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -2004,16 +2004,16 @@
       <c r="S27" s="21"/>
     </row>
     <row r="28" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="36"/>
-      <c r="C28" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>60</v>
+      <c r="B28" s="43"/>
+      <c r="C28" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -2030,19 +2030,19 @@
       <c r="S28" s="22"/>
     </row>
     <row r="29" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="36"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="50" t="s">
-        <v>61</v>
+      <c r="B29" s="43"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="28" t="s">
+        <v>60</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
@@ -2056,14 +2056,14 @@
       <c r="S29" s="20"/>
     </row>
     <row r="30" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="36"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="51" t="s">
-        <v>62</v>
+      <c r="B30" s="43"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -2080,12 +2080,12 @@
       <c r="S30" s="21"/>
     </row>
     <row r="31" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="36"/>
-      <c r="C31" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="49" t="s">
-        <v>63</v>
+      <c r="B31" s="43"/>
+      <c r="C31" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="8"/>
@@ -2098,20 +2098,20 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R31" s="8"/>
       <c r="S31" s="22"/>
     </row>
     <row r="32" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="36"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="50" t="s">
-        <v>64</v>
+      <c r="B32" s="43"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="7"/>
@@ -2122,24 +2122,24 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R32" s="7"/>
       <c r="S32" s="20"/>
     </row>
     <row r="33" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="36"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="50" t="s">
-        <v>65</v>
+      <c r="B33" s="43"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="7"/>
@@ -2154,48 +2154,48 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="20"/>
     </row>
     <row r="34" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="37"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="51" t="s">
-        <v>66</v>
+      <c r="B34" s="44"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R34" s="9"/>
       <c r="S34" s="21"/>
     </row>
     <row r="35" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="52" t="s">
-        <v>67</v>
+      <c r="B35" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="8"/>
@@ -2206,7 +2206,7 @@
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -2216,10 +2216,10 @@
       <c r="S35" s="22"/>
     </row>
     <row r="36" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="39"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="53" t="s">
-        <v>68</v>
+      <c r="B36" s="46"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="7"/>
@@ -2230,7 +2230,7 @@
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
@@ -2240,24 +2240,24 @@
       <c r="S36" s="20"/>
     </row>
     <row r="37" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="39"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="53" t="s">
-        <v>69</v>
+      <c r="B37" s="46"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="31" t="s">
+        <v>68</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O37" s="7"/>
       <c r="P37" s="7"/>
@@ -2266,19 +2266,19 @@
       <c r="S37" s="20"/>
     </row>
     <row r="38" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="39"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="53" t="s">
-        <v>70</v>
+      <c r="B38" s="46"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="31" t="s">
+        <v>69</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -2286,7 +2286,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
@@ -2294,24 +2294,24 @@
       <c r="S38" s="20"/>
     </row>
     <row r="39" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="39"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="54" t="s">
-        <v>71</v>
+      <c r="B39" s="46"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
@@ -2320,75 +2320,75 @@
       <c r="S39" s="21"/>
     </row>
     <row r="40" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="39"/>
-      <c r="C40" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>72</v>
+      <c r="B40" s="46"/>
+      <c r="C40" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S40" s="22"/>
     </row>
     <row r="41" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="39"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="53" t="s">
-        <v>9</v>
+      <c r="B41" s="46"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
@@ -2396,19 +2396,19 @@
       <c r="S41" s="20"/>
     </row>
     <row r="42" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="39"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="53" t="s">
-        <v>10</v>
+      <c r="B42" s="46"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="31" t="s">
+        <v>9</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -2422,19 +2422,19 @@
       <c r="S42" s="20"/>
     </row>
     <row r="43" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="39"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="53" t="s">
-        <v>73</v>
+      <c r="B43" s="46"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="31" t="s">
+        <v>72</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
@@ -2448,17 +2448,17 @@
       <c r="S43" s="20"/>
     </row>
     <row r="44" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="39"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="53" t="s">
-        <v>74</v>
+      <c r="B44" s="46"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="31" t="s">
+        <v>73</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
@@ -2472,32 +2472,32 @@
       <c r="S44" s="20"/>
     </row>
     <row r="45" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="39"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="55" t="s">
-        <v>75</v>
+      <c r="B45" s="46"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="33" t="s">
+        <v>74</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K45" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L45" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M45" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N45" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O45" s="25"/>
       <c r="P45" s="25"/>
@@ -2506,28 +2506,28 @@
       <c r="S45" s="26"/>
     </row>
     <row r="46" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="39"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="54" t="s">
-        <v>95</v>
+      <c r="B46" s="46"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="32" t="s">
+        <v>94</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
@@ -2536,51 +2536,51 @@
       <c r="S46" s="21"/>
     </row>
     <row r="47" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="39"/>
-      <c r="C47" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>76</v>
+      <c r="B47" s="46"/>
+      <c r="C47" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>75</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S47" s="22"/>
     </row>
     <row r="48" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="39"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="53" t="s">
-        <v>77</v>
+      <c r="B48" s="46"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
       <c r="I48" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
@@ -2591,22 +2591,22 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S48" s="20"/>
     </row>
     <row r="49" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="39"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="54" t="s">
-        <v>78</v>
+      <c r="B49" s="46"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="32" t="s">
+        <v>77</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -2617,114 +2617,114 @@
       <c r="P49" s="9"/>
       <c r="Q49" s="9"/>
       <c r="R49" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S49" s="21"/>
     </row>
     <row r="50" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="39"/>
-      <c r="C50" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="52" t="s">
-        <v>79</v>
+      <c r="B50" s="46"/>
+      <c r="C50" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
       <c r="Q50" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R50" s="8"/>
       <c r="S50" s="22"/>
     </row>
     <row r="51" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="39"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="53" t="s">
-        <v>80</v>
+      <c r="B51" s="46"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="31" t="s">
+        <v>79</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O51" s="7"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R51" s="7"/>
       <c r="S51" s="20"/>
     </row>
     <row r="52" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="39"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="53" t="s">
-        <v>81</v>
+      <c r="B52" s="46"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="31" t="s">
+        <v>80</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
@@ -2732,17 +2732,17 @@
       <c r="S52" s="20"/>
     </row>
     <row r="53" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="39"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="53" t="s">
-        <v>82</v>
+      <c r="B53" s="46"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="31" t="s">
+        <v>81</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
@@ -2756,35 +2756,35 @@
       <c r="S53" s="20"/>
     </row>
     <row r="54" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="39"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="53" t="s">
-        <v>83</v>
+      <c r="B54" s="46"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="31" t="s">
+        <v>82</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
@@ -2792,71 +2792,71 @@
       <c r="S54" s="20"/>
     </row>
     <row r="55" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="39"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="53" t="s">
-        <v>84</v>
+      <c r="B55" s="46"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="31" t="s">
+        <v>83</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O55" s="7"/>
       <c r="P55" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="20"/>
     </row>
     <row r="56" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="39"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="53" t="s">
-        <v>85</v>
+      <c r="B56" s="46"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="31" t="s">
+        <v>84</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
@@ -2864,35 +2864,35 @@
       <c r="S56" s="20"/>
     </row>
     <row r="57" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="39"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="53" t="s">
-        <v>86</v>
+      <c r="B57" s="46"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="31" t="s">
+        <v>85</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
@@ -2900,32 +2900,32 @@
       <c r="S57" s="20"/>
     </row>
     <row r="58" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="39"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="54" t="s">
-        <v>87</v>
+      <c r="B58" s="46"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N58" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
@@ -2934,19 +2934,19 @@
       <c r="S58" s="21"/>
     </row>
     <row r="59" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="39"/>
-      <c r="C59" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>88</v>
+      <c r="B59" s="46"/>
+      <c r="C59" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
       <c r="I59" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
@@ -2960,17 +2960,17 @@
       <c r="S59" s="22"/>
     </row>
     <row r="60" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="39"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="53" t="s">
-        <v>89</v>
+      <c r="B60" s="46"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
@@ -2984,19 +2984,19 @@
       <c r="S60" s="20"/>
     </row>
     <row r="61" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="39"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="53" t="s">
-        <v>90</v>
+      <c r="B61" s="46"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
@@ -3008,23 +3008,23 @@
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="39"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="53" t="s">
-        <v>91</v>
+      <c r="B62" s="46"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
@@ -3036,59 +3036,59 @@
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
       <c r="S62" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="39"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="53" t="s">
-        <v>92</v>
+      <c r="B63" s="46"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O63" s="7"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R63" s="7"/>
       <c r="S63" s="20"/>
     </row>
     <row r="64" spans="2:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="39"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="53" t="s">
-        <v>93</v>
+      <c r="B64" s="46"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="31" t="s">
+        <v>92</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
@@ -3102,19 +3102,19 @@
       <c r="S64" s="20"/>
     </row>
     <row r="65" spans="2:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="40"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="54" t="s">
-        <v>94</v>
+      <c r="B65" s="47"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="32" t="s">
+        <v>93</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
@@ -3162,62 +3162,62 @@
   <sheetData>
     <row r="7" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
